--- a/ONCHO/Impact Assessments/Benin/stop/2024/bj_oncho_stop_6_2408_usage_facility.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/2024/bj_oncho_stop_6_2408_usage_facility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67FA977-C57B-45DE-BF83-942CF275119D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FC5103-4D4C-4C64-8E21-8DAC7B1CBF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
     <t>Tout à fait d.accord</t>
   </si>
   <si>
-    <t>(2023 Juillet) ONCHO Stop TDM - 6. Questionnaire sur la facilité d'utilisation V2</t>
-  </si>
-  <si>
-    <t>bj_oncho_stop_6_202306_usage_facility_v2</t>
+    <t>bj_oncho_stop_6_2408_usage_facility</t>
+  </si>
+  <si>
+    <t>(2024 Août) ONCHO Stop TDM - 6. Questionnaire sur la facilité d'utilisation</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
@@ -2485,7 +2485,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
